--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -446,10 +446,10 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>41562.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.71</v>
+        <v>4.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.46</v>
+        <v>3.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.09</v>
+        <v>5.91</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>262.76</v>
+        <v>26.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.41</v>
+        <v>4.94</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.4</v>
+        <v>2.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.17</v>
+        <v>5.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41562.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.48</v>
+        <v>4.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.11</v>
+        <v>4.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>68.86</v>
+        <v>6.89</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.04</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.65</v>
+        <v>26.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.43</v>
+        <v>4.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.04</v>
+        <v>3.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.32</v>
+        <v>3.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.35</v>
+        <v>2.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.28</v>
+        <v>6.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41562.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>96.84999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.45</v>
+        <v>1.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.47</v>
+        <v>2.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41562.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.51</v>
+        <v>4.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.46</v>
+        <v>3.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.46</v>
+        <v>6.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.67</v>
+        <v>1.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.95</v>
+        <v>2.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>249.05</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>47.04</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>57.28</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.76</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41562.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>49.7</v>
+        <v>4.97</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>41.1</v>
+        <v>4.11</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>70.44</v>
+        <v>7.04</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>266.23</v>
+        <v>26.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.27</v>
+        <v>5.03</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.84</v>
+        <v>3.38</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.25</v>
+        <v>1.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>63.84</v>
+        <v>6.38</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41562.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>39.29</v>
+        <v>3.93</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.49</v>
+        <v>3.25</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>57.24</v>
+        <v>5.72</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>209</v>
+        <v>20.9</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.77</v>
+        <v>2.68</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27.49</v>
+        <v>2.75</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>51.88</v>
+        <v>5.19</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41562.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.49</v>
+        <v>3.85</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.82</v>
+        <v>3.18</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>55.17</v>
+        <v>5.52</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>204.42</v>
+        <v>20.44</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.92</v>
+        <v>3.89</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>26.21</v>
+        <v>2.62</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.62</v>
+        <v>2.66</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>49.96</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41562.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="U9" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.52</v>
-      </c>
       <c r="V9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41562.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.3</v>
+        <v>3.33</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.53</v>
+        <v>2.75</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.88</v>
+        <v>4.29</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>175.77</v>
+        <v>17.58</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.54</v>
+        <v>2.25</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.41</v>
+        <v>3.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41562.34027777778</v>
+        <v>44811.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.27</v>
+        <v>1.63</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.09</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.77</v>
+        <v>3.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.95</v>
+        <v>2.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.91</v>
+        <v>3.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.75</v>
+        <v>1.98</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>1.17</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1.48</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41562.34722222222</v>
+        <v>44811.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.85</v>
+        <v>5.11</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.01</v>
+        <v>4.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.89</v>
+        <v>6.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="AB3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>26.17</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>6.23</v>
+        <v>6.35</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41562.35416666666</v>
+        <v>44811.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.13</v>
+        <v>2.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.63</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.85</v>
+        <v>2.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41562.36111111111</v>
+        <v>44811.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.65</v>
+        <v>3.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.85</v>
+        <v>2.45</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.61</v>
-      </c>
       <c r="J5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.97</v>
+        <v>1.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.39</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.9</v>
+        <v>15.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.7</v>
+        <v>3.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.16</v>
+        <v>2.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.28</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.73</v>
+        <v>3.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41562.36805555555</v>
+        <v>44811.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.3</v>
+        <v>13.45</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7</v>
+        <v>9.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.88</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.97</v>
+        <v>29.24</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.11</v>
+        <v>23.72</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.81</v>
+        <v>10.56</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.04</v>
+        <v>41.33</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.78</v>
+        <v>16.29</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.24</v>
+        <v>7.19</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.85</v>
+        <v>10.59</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>11.74</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.1</v>
+        <v>12.36</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>26.62</v>
+        <v>152.91</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.03</v>
+        <v>29.46</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.66</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.38</v>
+        <v>19.71</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.79</v>
+        <v>10.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.23</v>
+        <v>1.65</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.42</v>
+        <v>20.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.47</v>
+        <v>8.58</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.3</v>
+        <v>7.64</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.52</v>
+        <v>8.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.1</v>
+        <v>12.32</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.38</v>
+        <v>37.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.42</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41562.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41562.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41562.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41562.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41562.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>34.98</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>225.02</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.68</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>53.26</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.61</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44811.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.48</v>
+        <v>34.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.92</v>
+        <v>39.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.72</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44811.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.11</v>
+        <v>51.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.12</v>
+        <v>41.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.96</v>
+        <v>69.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>273.09</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>6.35</v>
+        <v>63.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44811.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.14</v>
+        <v>61.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>2.19</v>
       </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44811.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.86</v>
+        <v>158.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44811.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.79</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.08</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.21</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.09</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.09</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.72</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.15</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>187.2</v>
@@ -715,43 +715,43 @@
         <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.04</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.67</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.34</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.22</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.44</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.15</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>44811.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.01</v>
+        <v>17.006</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.02</v>
+        <v>2.016</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.06</v>
+        <v>51.064</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.24</v>
+        <v>41.235</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.5</v>
+        <v>18.499</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>69.56</v>
+        <v>69.562</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>12.46</v>
@@ -789,46 +789,46 @@
         <v>18.4</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.43</v>
+        <v>20.425</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.46</v>
+        <v>21.458</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.92</v>
+        <v>5.917</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.06</v>
+        <v>26.065</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.73</v>
+        <v>15.726</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.545</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.274</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.09</v>
+        <v>273.094</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.5</v>
+        <v>51.504</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.33</v>
+        <v>34.333</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.9</v>
+        <v>17.897</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.11</v>
+        <v>3.112</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>34.26</v>
@@ -837,25 +837,25 @@
         <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.38</v>
+        <v>13.383</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.81</v>
+        <v>15.809</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.46</v>
+        <v>21.464</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.51</v>
+        <v>63.514</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.446999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
@@ -863,13 +863,13 @@
         <v>44811.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.88</v>
+        <v>3.882</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>12.48</v>
@@ -878,88 +878,88 @@
         <v>9.609999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.512</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.5</v>
+        <v>23.502</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.96</v>
+        <v>2.963</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.156</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.99</v>
+        <v>4.989</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.17</v>
+        <v>5.174</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.458</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.512</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.34</v>
+        <v>6.337</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>4.09</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.4</v>
+        <v>61.397</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.91</v>
+        <v>12.914</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.164</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>8.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.27</v>
+        <v>4.269</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.047</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.73</v>
+        <v>10.733</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.39</v>
+        <v>3.394</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.01</v>
+        <v>4.008</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.23</v>
+        <v>5.226</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.94</v>
+        <v>21.942</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.19</v>
+        <v>2.193</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44811.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.24</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.91</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44811.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.13</v>
+        <v>10.132</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.015</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.27</v>
+        <v>30.275</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.48</v>
+        <v>24.476</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.66</v>
+        <v>40.657</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.402</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.904</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.14</v>
+        <v>12.145</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.77</v>
+        <v>12.775</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>3.501</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.43</v>
+        <v>15.426</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.61</v>
+        <v>158.612</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.4</v>
+        <v>30.404</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.29</v>
+        <v>20.293</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.64</v>
+        <v>10.645</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.77</v>
+        <v>1.768</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.81</v>
+        <v>19.808</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>7.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.337999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>12.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.77</v>
+        <v>36.772</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.6</v>
+        <v>5.597</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44811.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.91</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_130.xlsx
+++ b/DATA_goal/Junction_Flooding_130.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44811.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.932</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.132</v>
+        <v>10.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.015</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.275</v>
+        <v>30.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.476</v>
+        <v>24.48</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.657</v>
+        <v>40.66</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.402</v>
+        <v>7.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.904</v>
+        <v>10.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.145</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.775</v>
+        <v>12.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.501</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.426</v>
+        <v>15.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.311999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.612</v>
+        <v>158.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.404</v>
+        <v>30.4</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.064</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.293</v>
+        <v>20.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.645</v>
+        <v>10.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.808</v>
+        <v>19.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>7.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.337999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>12.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.772</v>
+        <v>36.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.597</v>
+        <v>5.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.582</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44811.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.24</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.91</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.15</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
